--- a/biology/Histoire de la zoologie et de la botanique/Gustave_Barratte/Gustave_Barratte.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustave_Barratte/Gustave_Barratte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean François Gustave Barratte, né le 23 octobre 1857 à Marnoz (Jura), mort le 7 juin 1920 à Marnoz, dont il a été le maire, est un botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Barratte fut attaché en 1883 à la Mission d'Exploration Scientifique de la Tunisie, où il fut le secrétaire de Cosson, puis plus tard le conservateur de son herbier. Il a été également conservateur au Muséum national d'histoire naturelle à Paris.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'un des coauteurs de Floræ Libycæ Prodromus: ou catalogue raisonné des plantes de Tripolitaine.
 Ensemble, avec Edmond Bonnet (1848 - 1922), il est coauteur du Catalogue raisonné des plantes vasculaires de Tunisie. Imprimerie Nationale, Paris (1896). Texte disponible en ligne sur IRIS.
@@ -575,7 +591,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deux espèces lui sont dédiées :
 Echium barrattei Coincy
